--- a/src/main/resources/template/excel/export/purchaseActivitylGoodsBarCodeTemplate.xlsx
+++ b/src/main/resources/template/excel/export/purchaseActivitylGoodsBarCodeTemplate.xlsx
@@ -37,6 +37,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="000000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,24 +52,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -118,13 +122,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,33 +436,33 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>330099</v>
+      <c r="A2" s="3">
+        <v>3300923123129</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>330088</v>
+      <c r="A3" s="3">
+        <v>3300123122388</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>330077</v>
+      <c r="A4" s="3">
+        <v>33123123120077</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/template/excel/export/purchaseActivitylGoodsBarCodeTemplate.xlsx
+++ b/src/main/resources/template/excel/export/purchaseActivitylGoodsBarCodeTemplate.xlsx
@@ -38,7 +38,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -122,13 +122,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,32 +436,32 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>3300923123129</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>3300123122388</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>33123123120077</v>
       </c>
     </row>
